--- a/data_test.xlsx
+++ b/data_test.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\_Учебка\Наука и проекты\УЗ аналитика\05-06.2025 - личные эксперименты\7thjune\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Для занятий\_Статья\05-06.2025 - личные эксперименты\7thjune\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAF9219-8D77-4689-BDB2-00FF345B73D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD56601F-4CF2-46D9-88F3-E6085ED7EB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{575A491B-F891-4CE8-80F3-603839A1D077}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{575A491B-F891-4CE8-80F3-603839A1D077}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="7" r:id="rId1"/>
-    <sheet name="train" sheetId="6" r:id="rId2"/>
-    <sheet name="train_raw" sheetId="4" r:id="rId3"/>
-    <sheet name="test_raw" sheetId="5" r:id="rId4"/>
+    <sheet name="test_raw" sheetId="5" r:id="rId1"/>
+    <sheet name="test" sheetId="7" r:id="rId2"/>
+    <sheet name="train" sheetId="6" r:id="rId3"/>
+    <sheet name="train_raw" sheetId="4" r:id="rId4"/>
     <sheet name="Лист1 (2)" sheetId="3" r:id="rId5"/>
     <sheet name="Лист1" sheetId="1" r:id="rId6"/>
     <sheet name="Лист2" sheetId="2" r:id="rId7"/>
@@ -1222,29 +1222,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4C2628-D2FC-4A48-A21D-90205F9A8A1C}">
+  <sheetPr codeName="Лист5"/>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="68">
+        <v>5</v>
+      </c>
+      <c r="B2" s="69">
+        <v>5</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69">
+        <v>15.63</v>
+      </c>
+      <c r="E2" s="69">
+        <v>16.87</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="68">
+        <v>25.4</v>
+      </c>
+      <c r="H2" s="69">
+        <v>25.4</v>
+      </c>
+      <c r="I2" s="20">
+        <v>26</v>
+      </c>
+      <c r="J2" s="70">
+        <v>1660.380452607463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="68">
+        <v>5</v>
+      </c>
+      <c r="B3" s="69">
+        <v>10</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69">
+        <v>15.52</v>
+      </c>
+      <c r="E3" s="69">
+        <v>23.22</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="71">
+        <v>27.4</v>
+      </c>
+      <c r="H3" s="72">
+        <v>27.3</v>
+      </c>
+      <c r="I3" s="73">
+        <v>26</v>
+      </c>
+      <c r="J3" s="70">
+        <v>1786.974938228082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="68">
+        <v>5</v>
+      </c>
+      <c r="B4" s="69">
+        <v>10</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69">
+        <v>15.52</v>
+      </c>
+      <c r="E4" s="69">
+        <v>23.22</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="71">
+        <v>27.4</v>
+      </c>
+      <c r="H4" s="72">
+        <v>27.3</v>
+      </c>
+      <c r="I4" s="73">
+        <v>26</v>
+      </c>
+      <c r="J4" s="70">
+        <v>1791.4012738854051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="68">
+        <v>10</v>
+      </c>
+      <c r="B5" s="69">
+        <v>5</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69">
+        <v>20.58</v>
+      </c>
+      <c r="E5" s="69">
+        <v>17</v>
+      </c>
+      <c r="F5" s="69"/>
+      <c r="G5" s="68">
+        <v>25</v>
+      </c>
+      <c r="H5" s="69">
+        <v>25</v>
+      </c>
+      <c r="I5" s="20">
+        <v>25.1</v>
+      </c>
+      <c r="J5" s="70">
+        <v>1636.7604267701761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="68">
+        <v>10</v>
+      </c>
+      <c r="B6" s="69">
+        <v>5</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69">
+        <v>20.57</v>
+      </c>
+      <c r="E6" s="69">
+        <v>16.87</v>
+      </c>
+      <c r="F6" s="69"/>
+      <c r="G6" s="68">
+        <v>26.7</v>
+      </c>
+      <c r="H6" s="69">
+        <v>26.7</v>
+      </c>
+      <c r="I6" s="73">
+        <v>26.5</v>
+      </c>
+      <c r="J6" s="70">
+        <v>1637.8194758978179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB19FE81-7B9A-4266-91F3-22F715A661B6}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" style="1"/>
-    <col min="11" max="11" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7109375" style="1"/>
+    <col min="11" max="11" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1267,7 +1470,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1293,7 +1496,7 @@
         <v>1245.86666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1319,7 +1522,7 @@
         <v>1245.86666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1345,7 +1548,7 @@
         <v>1245.86666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1371,7 +1574,7 @@
         <v>1245.86666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1403,7 +1606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F4DAD7-B140-46D4-A005-91D2ED17B6AC}">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -1411,24 +1614,24 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" style="1"/>
-    <col min="13" max="13" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
@@ -1460,7 +1663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>20</v>
       </c>
@@ -1491,7 +1694,7 @@
         <v>1477.239568135441</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="2">
         <v>10</v>
@@ -1522,7 +1725,7 @@
         <v>1906.061746988011</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
@@ -1553,7 +1756,7 @@
         <v>1126.7527264634221</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>5</v>
       </c>
@@ -1586,7 +1789,7 @@
         <v>1712.6184032476849</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>15</v>
       </c>
@@ -1619,7 +1822,7 @@
         <v>1433.3238958097841</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="2">
         <v>5</v>
@@ -1652,7 +1855,7 @@
         <v>1366.396761133645</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -1685,7 +1888,7 @@
         <v>1740.8872077029421</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>20</v>
       </c>
@@ -1718,7 +1921,7 @@
         <v>1488.095238095284</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
         <v>10</v>
       </c>
@@ -1751,7 +1954,7 @@
         <v>1333.289439030855</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>20</v>
       </c>
@@ -1782,7 +1985,7 @@
         <v>1487.6579488686909</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="2">
         <v>10</v>
@@ -1813,7 +2016,7 @@
         <v>1906.061746988011</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2">
@@ -1844,7 +2047,7 @@
         <v>1129.0142729705969</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>5</v>
       </c>
@@ -1877,7 +2080,7 @@
         <v>1710.882054748279</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>15</v>
       </c>
@@ -1910,7 +2113,7 @@
         <v>1484.6041055718929</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="2">
         <v>5</v>
@@ -1943,7 +2146,7 @@
         <v>1371.951219512237</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>5</v>
       </c>
@@ -1977,7 +2180,7 @@
       </c>
       <c r="M17" s="74"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>20</v>
       </c>
@@ -2011,7 +2214,7 @@
       </c>
       <c r="M18" s="74"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>10</v>
       </c>
@@ -2044,7 +2247,7 @@
         <v>1285.877571755183</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -2075,7 +2278,7 @@
         <v>1452.6542324247221</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="2">
         <v>10</v>
@@ -2106,7 +2309,7 @@
         <v>1843.590677348928</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
@@ -2137,7 +2340,7 @@
         <v>1129.266116439919</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>5</v>
       </c>
@@ -2170,7 +2373,7 @@
         <v>1713.1979695432001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>15</v>
       </c>
@@ -2203,7 +2406,7 @@
         <v>1433.3238958097841</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="2">
         <v>5</v>
@@ -2236,7 +2439,7 @@
         <v>1408.9897021987631</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>5</v>
       </c>
@@ -2271,7 +2474,7 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>20</v>
       </c>
@@ -2305,7 +2508,7 @@
       </c>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26">
         <v>10</v>
       </c>
@@ -2326,798 +2529,6 @@
         <v>15.590000000000002</v>
       </c>
       <c r="G28" s="62">
-        <v>26.9</v>
-      </c>
-      <c r="H28" s="14">
-        <v>26.8</v>
-      </c>
-      <c r="I28" s="52">
-        <v>27.7</v>
-      </c>
-      <c r="J28" s="56">
-        <v>1324.221815328317</v>
-      </c>
-      <c r="L28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="M17:M18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B41AF6E-62F8-4E65-B4AB-CD96D24601B3}">
-  <sheetPr codeName="Лист4"/>
-  <dimension ref="A1:M28"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" style="1"/>
-    <col min="13" max="13" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
-        <v>30.52</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="16">
-        <v>25</v>
-      </c>
-      <c r="H2" s="3">
-        <v>24.8</v>
-      </c>
-      <c r="I2" s="45">
-        <v>24.7</v>
-      </c>
-      <c r="J2" s="54">
-        <v>1477.239568135441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="2">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>23.22</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="18">
-        <v>22.6</v>
-      </c>
-      <c r="H3" s="2">
-        <v>22.4</v>
-      </c>
-      <c r="I3" s="46">
-        <v>24.6</v>
-      </c>
-      <c r="J3" s="55">
-        <v>1906.061746988011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>26.26</v>
-      </c>
-      <c r="G4" s="18">
-        <v>24.2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>24.1</v>
-      </c>
-      <c r="I4" s="46">
-        <v>23.6</v>
-      </c>
-      <c r="J4" s="55">
-        <v>1126.7527264634221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>15.57</v>
-      </c>
-      <c r="E5" s="2">
-        <v>16.93</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="18">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2">
-        <v>25</v>
-      </c>
-      <c r="I5" s="46">
-        <v>24.6</v>
-      </c>
-      <c r="J5" s="55">
-        <v>1712.6184032476849</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
-        <v>25.42</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>22.4</v>
-      </c>
-      <c r="G6" s="18">
-        <v>27.3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>26.9</v>
-      </c>
-      <c r="I6" s="47">
-        <v>25</v>
-      </c>
-      <c r="J6" s="55">
-        <v>1433.3238958097841</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>16.84</v>
-      </c>
-      <c r="F7" s="2">
-        <v>14.55</v>
-      </c>
-      <c r="G7" s="18">
-        <v>24.8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>24.9</v>
-      </c>
-      <c r="I7" s="47">
-        <v>25.1</v>
-      </c>
-      <c r="J7" s="55">
-        <v>1366.396761133645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>23.26</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="18">
-        <v>25.4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>25.2</v>
-      </c>
-      <c r="I8" s="46">
-        <v>24.5</v>
-      </c>
-      <c r="J8" s="55">
-        <v>1740.8872077029421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <v>30.53</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>24.3</v>
-      </c>
-      <c r="H9" s="2">
-        <v>24.3</v>
-      </c>
-      <c r="I9" s="47">
-        <v>25.6</v>
-      </c>
-      <c r="J9" s="55">
-        <v>1488.095238095284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="18">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2">
-        <v>20.54</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>26.28</v>
-      </c>
-      <c r="G10" s="26">
-        <v>24.3</v>
-      </c>
-      <c r="H10" s="8">
-        <v>24.3</v>
-      </c>
-      <c r="I10" s="48">
-        <v>25.6</v>
-      </c>
-      <c r="J10" s="56">
-        <v>1333.289439030855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>30.47</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="16">
-        <v>24.1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>24.3</v>
-      </c>
-      <c r="I11" s="49">
-        <v>25.2</v>
-      </c>
-      <c r="J11" s="54">
-        <v>1487.6579488686909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>23.28</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="18">
-        <v>24.5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>24.5</v>
-      </c>
-      <c r="I12" s="47">
-        <v>25.3</v>
-      </c>
-      <c r="J12" s="55">
-        <v>1906.061746988011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>26.3</v>
-      </c>
-      <c r="G13" s="18">
-        <v>24.3</v>
-      </c>
-      <c r="H13" s="2">
-        <v>24.2</v>
-      </c>
-      <c r="I13" s="47">
-        <v>25.4</v>
-      </c>
-      <c r="J13" s="55">
-        <v>1129.0142729705969</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>15.52</v>
-      </c>
-      <c r="E14" s="2">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="18">
-        <v>25.1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>24.9</v>
-      </c>
-      <c r="I14" s="47">
-        <v>25.1</v>
-      </c>
-      <c r="J14" s="55">
-        <v>1710.882054748279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2">
-        <v>25.45</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>22.4</v>
-      </c>
-      <c r="G15" s="18">
-        <v>26</v>
-      </c>
-      <c r="H15" s="2">
-        <v>25.9</v>
-      </c>
-      <c r="I15" s="47">
-        <v>25.3</v>
-      </c>
-      <c r="J15" s="55">
-        <v>1484.6041055718929</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>17</v>
-      </c>
-      <c r="F16" s="2">
-        <v>14.6</v>
-      </c>
-      <c r="G16" s="18">
-        <v>25.2</v>
-      </c>
-      <c r="H16" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="I16" s="47">
-        <v>26</v>
-      </c>
-      <c r="J16" s="55">
-        <v>1371.951219512237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <v>15.53</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="18">
-        <v>26.2</v>
-      </c>
-      <c r="H17" s="2">
-        <v>26.2</v>
-      </c>
-      <c r="I17" s="47">
-        <v>26.2</v>
-      </c>
-      <c r="J17" s="55">
-        <v>1658.7483617300641</v>
-      </c>
-      <c r="M17" s="74"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2">
-        <v>30.43</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2">
-        <v>18.46</v>
-      </c>
-      <c r="G18" s="18">
-        <v>26.4</v>
-      </c>
-      <c r="H18" s="2">
-        <v>26.5</v>
-      </c>
-      <c r="I18" s="47">
-        <v>26.1</v>
-      </c>
-      <c r="J18" s="55">
-        <v>1484.6041055718929</v>
-      </c>
-      <c r="M18" s="74"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="18">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2">
-        <v>20.43</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2">
-        <v>26.32</v>
-      </c>
-      <c r="G19" s="26">
-        <v>26.1</v>
-      </c>
-      <c r="H19" s="8">
-        <v>25.9</v>
-      </c>
-      <c r="I19" s="48">
-        <v>26.5</v>
-      </c>
-      <c r="J19" s="56">
-        <v>1285.877571755183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3">
-        <v>30.46</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="21">
-        <v>24.4</v>
-      </c>
-      <c r="H20" s="22">
-        <v>24.4</v>
-      </c>
-      <c r="I20" s="50">
-        <v>26.1</v>
-      </c>
-      <c r="J20" s="54">
-        <v>1452.6542324247221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
-      <c r="B21" s="2">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <v>23.16</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="18">
-        <v>25.7</v>
-      </c>
-      <c r="H21" s="2">
-        <v>25.7</v>
-      </c>
-      <c r="I21" s="51">
-        <v>25.8</v>
-      </c>
-      <c r="J21" s="55">
-        <v>1843.590677348928</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
-        <v>26.36</v>
-      </c>
-      <c r="G22" s="18">
-        <v>25</v>
-      </c>
-      <c r="H22" s="2">
-        <v>24.9</v>
-      </c>
-      <c r="I22" s="51">
-        <v>25.6</v>
-      </c>
-      <c r="J22" s="55">
-        <v>1129.266116439919</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="18">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2">
-        <v>15.59</v>
-      </c>
-      <c r="E23" s="2">
-        <v>16.91</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="18">
-        <v>26.3</v>
-      </c>
-      <c r="H23" s="2">
-        <v>26</v>
-      </c>
-      <c r="I23" s="51">
-        <v>26.1</v>
-      </c>
-      <c r="J23" s="55">
-        <v>1713.1979695432001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="18">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <v>15</v>
-      </c>
-      <c r="D24" s="2">
-        <v>25.45</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2">
-        <v>22.36</v>
-      </c>
-      <c r="G24" s="18">
-        <v>25.8</v>
-      </c>
-      <c r="H24" s="2">
-        <v>25.8</v>
-      </c>
-      <c r="I24" s="51">
-        <v>26.3</v>
-      </c>
-      <c r="J24" s="55">
-        <v>1433.3238958097841</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
-      <c r="B25" s="2">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2">
-        <v>16.89</v>
-      </c>
-      <c r="F25" s="2">
-        <v>14.55</v>
-      </c>
-      <c r="G25" s="18">
-        <v>26</v>
-      </c>
-      <c r="H25" s="2">
-        <v>26</v>
-      </c>
-      <c r="I25" s="51">
-        <v>26.5</v>
-      </c>
-      <c r="J25" s="55">
-        <v>1408.9897021987631</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="18">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
-        <v>15.52</v>
-      </c>
-      <c r="E26" s="2">
-        <v>23.22</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="5">
-        <v>27.4</v>
-      </c>
-      <c r="H26" s="12">
-        <v>27.3</v>
-      </c>
-      <c r="I26" s="51">
-        <v>26</v>
-      </c>
-      <c r="J26" s="55">
-        <v>1745.0879007239421</v>
-      </c>
-      <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2">
-        <v>30.45</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2">
-        <v>18.45</v>
-      </c>
-      <c r="G27" s="5">
-        <v>27</v>
-      </c>
-      <c r="H27" s="12">
-        <v>26.8</v>
-      </c>
-      <c r="I27" s="51">
-        <v>27</v>
-      </c>
-      <c r="J27" s="55">
-        <v>1479.8304589301831</v>
-      </c>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="26">
-        <v>10</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8">
-        <v>20</v>
-      </c>
-      <c r="D28" s="8">
-        <v>20.55</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8">
-        <v>26.26</v>
-      </c>
-      <c r="G28" s="7">
         <v>26.9</v>
       </c>
       <c r="H28" s="14">
@@ -3140,204 +2551,793 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4C2628-D2FC-4A48-A21D-90205F9A8A1C}">
-  <sheetPr codeName="Лист5"/>
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B41AF6E-62F8-4E65-B4AB-CD96D24601B3}">
+  <sheetPr codeName="Лист4"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" style="1"/>
-    <col min="13" max="13" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="24" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="53" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="68">
-        <v>5</v>
-      </c>
-      <c r="B2" s="69">
-        <v>5</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69">
-        <v>15.63</v>
-      </c>
-      <c r="E2" s="69">
-        <v>16.87</v>
-      </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="68">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>30.52</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="16">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="I2" s="45">
+        <v>24.7</v>
+      </c>
+      <c r="J2" s="54">
+        <v>1477.239568135441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>23.22</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="18">
+        <v>22.6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="I3" s="46">
+        <v>24.6</v>
+      </c>
+      <c r="J3" s="55">
+        <v>1906.061746988011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>26.26</v>
+      </c>
+      <c r="G4" s="18">
+        <v>24.2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="I4" s="46">
+        <v>23.6</v>
+      </c>
+      <c r="J4" s="55">
+        <v>1126.7527264634221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>15.57</v>
+      </c>
+      <c r="E5" s="2">
+        <v>16.93</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="18">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2">
+        <v>25</v>
+      </c>
+      <c r="I5" s="46">
+        <v>24.6</v>
+      </c>
+      <c r="J5" s="55">
+        <v>1712.6184032476849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25.42</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="G6" s="18">
+        <v>27.3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>26.9</v>
+      </c>
+      <c r="I6" s="47">
+        <v>25</v>
+      </c>
+      <c r="J6" s="55">
+        <v>1433.3238958097841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>16.84</v>
+      </c>
+      <c r="F7" s="2">
+        <v>14.55</v>
+      </c>
+      <c r="G7" s="18">
+        <v>24.8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="I7" s="47">
+        <v>25.1</v>
+      </c>
+      <c r="J7" s="55">
+        <v>1366.396761133645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>23.26</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="18">
         <v>25.4</v>
       </c>
-      <c r="H2" s="69">
+      <c r="H8" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="I8" s="46">
+        <v>24.5</v>
+      </c>
+      <c r="J8" s="55">
+        <v>1740.8872077029421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>30.53</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>24.3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>24.3</v>
+      </c>
+      <c r="I9" s="47">
+        <v>25.6</v>
+      </c>
+      <c r="J9" s="55">
+        <v>1488.095238095284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20.54</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>26.28</v>
+      </c>
+      <c r="G10" s="26">
+        <v>24.3</v>
+      </c>
+      <c r="H10" s="8">
+        <v>24.3</v>
+      </c>
+      <c r="I10" s="48">
+        <v>25.6</v>
+      </c>
+      <c r="J10" s="56">
+        <v>1333.289439030855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>30.47</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="16">
+        <v>24.1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>24.3</v>
+      </c>
+      <c r="I11" s="49">
+        <v>25.2</v>
+      </c>
+      <c r="J11" s="54">
+        <v>1487.6579488686909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>23.28</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="18">
+        <v>24.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="I12" s="47">
+        <v>25.3</v>
+      </c>
+      <c r="J12" s="55">
+        <v>1906.061746988011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="G13" s="18">
+        <v>24.3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="I13" s="47">
         <v>25.4</v>
       </c>
-      <c r="I2" s="20">
+      <c r="J13" s="55">
+        <v>1129.0142729705969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>15.52</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="18">
+        <v>25.1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="I14" s="47">
+        <v>25.1</v>
+      </c>
+      <c r="J14" s="55">
+        <v>1710.882054748279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="G15" s="18">
         <v>26</v>
       </c>
-      <c r="J2" s="70">
-        <v>1660.380452607463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="68">
-        <v>5</v>
-      </c>
-      <c r="B3" s="69">
-        <v>10</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69">
+      <c r="H15" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="I15" s="47">
+        <v>25.3</v>
+      </c>
+      <c r="J15" s="55">
+        <v>1484.6041055718929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="G16" s="18">
+        <v>25.2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="I16" s="47">
+        <v>26</v>
+      </c>
+      <c r="J16" s="55">
+        <v>1371.951219512237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>15.53</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="18">
+        <v>26.2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>26.2</v>
+      </c>
+      <c r="I17" s="47">
+        <v>26.2</v>
+      </c>
+      <c r="J17" s="55">
+        <v>1658.7483617300641</v>
+      </c>
+      <c r="M17" s="74"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>30.43</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>18.46</v>
+      </c>
+      <c r="G18" s="18">
+        <v>26.4</v>
+      </c>
+      <c r="H18" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="I18" s="47">
+        <v>26.1</v>
+      </c>
+      <c r="J18" s="55">
+        <v>1484.6041055718929</v>
+      </c>
+      <c r="M18" s="74"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20.43</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>26.32</v>
+      </c>
+      <c r="G19" s="26">
+        <v>26.1</v>
+      </c>
+      <c r="H19" s="8">
+        <v>25.9</v>
+      </c>
+      <c r="I19" s="48">
+        <v>26.5</v>
+      </c>
+      <c r="J19" s="56">
+        <v>1285.877571755183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>30.46</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="21">
+        <v>24.4</v>
+      </c>
+      <c r="H20" s="22">
+        <v>24.4</v>
+      </c>
+      <c r="I20" s="50">
+        <v>26.1</v>
+      </c>
+      <c r="J20" s="54">
+        <v>1452.6542324247221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="2">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>23.16</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="18">
+        <v>25.7</v>
+      </c>
+      <c r="H21" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="I21" s="51">
+        <v>25.8</v>
+      </c>
+      <c r="J21" s="55">
+        <v>1843.590677348928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>26.36</v>
+      </c>
+      <c r="G22" s="18">
+        <v>25</v>
+      </c>
+      <c r="H22" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="I22" s="51">
+        <v>25.6</v>
+      </c>
+      <c r="J22" s="55">
+        <v>1129.266116439919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>15.59</v>
+      </c>
+      <c r="E23" s="2">
+        <v>16.91</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="18">
+        <v>26.3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>26</v>
+      </c>
+      <c r="I23" s="51">
+        <v>26.1</v>
+      </c>
+      <c r="J23" s="55">
+        <v>1713.1979695432001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>22.36</v>
+      </c>
+      <c r="G24" s="18">
+        <v>25.8</v>
+      </c>
+      <c r="H24" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="I24" s="51">
+        <v>26.3</v>
+      </c>
+      <c r="J24" s="55">
+        <v>1433.3238958097841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
+        <v>16.89</v>
+      </c>
+      <c r="F25" s="2">
+        <v>14.55</v>
+      </c>
+      <c r="G25" s="18">
+        <v>26</v>
+      </c>
+      <c r="H25" s="2">
+        <v>26</v>
+      </c>
+      <c r="I25" s="51">
+        <v>26.5</v>
+      </c>
+      <c r="J25" s="55">
+        <v>1408.9897021987631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
         <v>15.52</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E26" s="2">
         <v>23.22</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="71">
+      <c r="F26" s="2"/>
+      <c r="G26" s="5">
         <v>27.4</v>
       </c>
-      <c r="H3" s="72">
+      <c r="H26" s="12">
         <v>27.3</v>
       </c>
-      <c r="I3" s="73">
+      <c r="I26" s="51">
         <v>26</v>
       </c>
-      <c r="J3" s="70">
-        <v>1786.974938228082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="68">
-        <v>5</v>
-      </c>
-      <c r="B4" s="69">
-        <v>10</v>
-      </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69">
-        <v>15.52</v>
-      </c>
-      <c r="E4" s="69">
-        <v>23.22</v>
-      </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="71">
-        <v>27.4</v>
-      </c>
-      <c r="H4" s="72">
-        <v>27.3</v>
-      </c>
-      <c r="I4" s="73">
-        <v>26</v>
-      </c>
-      <c r="J4" s="70">
-        <v>1791.4012738854051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="68">
-        <v>10</v>
-      </c>
-      <c r="B5" s="69">
-        <v>5</v>
-      </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69">
-        <v>20.58</v>
-      </c>
-      <c r="E5" s="69">
-        <v>17</v>
-      </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="68">
-        <v>25</v>
-      </c>
-      <c r="H5" s="69">
-        <v>25</v>
-      </c>
-      <c r="I5" s="20">
-        <v>25.1</v>
-      </c>
-      <c r="J5" s="70">
-        <v>1636.7604267701761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="68">
-        <v>10</v>
-      </c>
-      <c r="B6" s="69">
-        <v>5</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69">
-        <v>20.57</v>
-      </c>
-      <c r="E6" s="69">
-        <v>16.87</v>
-      </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="68">
-        <v>26.7</v>
-      </c>
-      <c r="H6" s="69">
-        <v>26.7</v>
-      </c>
-      <c r="I6" s="73">
-        <v>26.5</v>
-      </c>
-      <c r="J6" s="70">
-        <v>1637.8194758978179</v>
-      </c>
+      <c r="J26" s="55">
+        <v>1745.0879007239421</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2">
+        <v>30.45</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
+        <v>18.45</v>
+      </c>
+      <c r="G27" s="5">
+        <v>27</v>
+      </c>
+      <c r="H27" s="12">
+        <v>26.8</v>
+      </c>
+      <c r="I27" s="51">
+        <v>27</v>
+      </c>
+      <c r="J27" s="55">
+        <v>1479.8304589301831</v>
+      </c>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8">
+        <v>20</v>
+      </c>
+      <c r="D28" s="8">
+        <v>20.55</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8">
+        <v>26.26</v>
+      </c>
+      <c r="G28" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="H28" s="14">
+        <v>26.8</v>
+      </c>
+      <c r="I28" s="52">
+        <v>27.7</v>
+      </c>
+      <c r="J28" s="56">
+        <v>1324.221815328317</v>
+      </c>
+      <c r="L28"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M17:M18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3351,15 +3351,15 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="5" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36"/>
       <c r="B1" s="35" t="s">
         <v>33</v>
@@ -3377,7 +3377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="38">
         <v>0</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>1477.239568135441</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>1906.061746988011</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>1126.7527264634221</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>1367.5040518639</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>1712.6184032476849</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>1433.3238958097841</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>1366.396761133645</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>1636.7604267701761</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>1740.8872077029421</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>1488.095238095284</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>1333.289439030855</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>11</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>1487.6579488686909</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>1906.061746988011</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>1129.0142729705969</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>1461.8827606122311</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>1710.882054748279</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>1484.6041055718929</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>1660.380452607463</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="G21" s="74"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="G22" s="74"/>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>1285.877571755183</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>22</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>1129.266116439919</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>1843.590677348928</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>1713.1979695432001</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>1433.3238958097841</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>1408.9897021987631</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>1637.8194758978179</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>1745.0879007239421</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>1791.4012738854051</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>1479.8304589301831</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>33</v>
       </c>
@@ -3918,26 +3918,26 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7265625" style="1"/>
-    <col min="15" max="15" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375" style="1"/>
+    <col min="15" max="15" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>20</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>1388.8888888889319</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="2">
         <v>10</v>
@@ -4027,7 +4027,7 @@
         <v>1750.5186721992241</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
@@ -4053,7 +4053,7 @@
         <v>1077.8156269959879</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4079,7 +4079,7 @@
         <v>1275.5102040816721</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>1625.200642054625</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>15</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>1352.163461538503</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="2">
         <v>5</v>
@@ -4169,7 +4169,7 @@
         <v>1344.264471587933</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>10</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>1544.858101922538</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>5</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>1704.545454545507</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>20</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>1385.4679802956091</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>1270.38895859477</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>20</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>1388.8888888889319</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="2">
         <v>10</v>
@@ -4341,7 +4341,7 @@
         <v>1750.5186721992241</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
@@ -4367,7 +4367,7 @@
         <v>1080.1152122893441</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4393,7 +4393,7 @@
         <v>1342.1261930011019</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>5</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>1622.07625760979</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>1353.6096256684909</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>5</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="2">
         <v>5</v>
@@ -4516,7 +4516,7 @@
         <v>1283.9208724321979</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>5</v>
       </c>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="O21" s="74"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="O22" s="74"/>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>10</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>1268.7969924812419</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>20</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4660,7 +4660,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
@@ -4686,7 +4686,7 @@
         <v>1078.7342851055089</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="2">
         <v>10</v>
@@ -4712,7 +4712,7 @@
         <v>2111.134278565537</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>5</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>1622.07625760979</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>15</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>1358.6956521739551</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="2">
         <v>5</v>
@@ -4802,7 +4802,7 @@
         <v>1343.550955414054</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>10</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>1545.8015267176049</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>5</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>20</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>1456.834532374146</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26">
         <v>10</v>
       </c>
@@ -4948,12 +4948,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -5050,14 +5050,14 @@
       </c>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
@@ -5066,21 +5066,21 @@
       </c>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>38</v>
       </c>

--- a/data_test.xlsx
+++ b/data_test.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Для занятий\_Статья\05-06.2025 - личные эксперименты\7thjune\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD56601F-4CF2-46D9-88F3-E6085ED7EB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6573AB5F-5452-4FDF-A571-34C104434F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{575A491B-F891-4CE8-80F3-603839A1D077}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_raw" sheetId="5" r:id="rId1"/>
-    <sheet name="test" sheetId="7" r:id="rId2"/>
-    <sheet name="train" sheetId="6" r:id="rId3"/>
-    <sheet name="train_raw" sheetId="4" r:id="rId4"/>
-    <sheet name="Лист1 (2)" sheetId="3" r:id="rId5"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId6"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId7"/>
+    <sheet name="test" sheetId="8" r:id="rId1"/>
+    <sheet name="test_raw" sheetId="5" r:id="rId2"/>
+    <sheet name="test_prep" sheetId="7" r:id="rId3"/>
+    <sheet name="train" sheetId="6" r:id="rId4"/>
+    <sheet name="train_raw" sheetId="4" r:id="rId5"/>
+    <sheet name="Лист1 (2)" sheetId="3" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId7"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>объем пробы</t>
   </si>
@@ -1222,11 +1223,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED28A6D-36D9-4E45-9D21-A8CB5A0F4691}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="68">
+        <v>5</v>
+      </c>
+      <c r="B2" s="69">
+        <v>5</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69">
+        <f>IF(test_raw!D2-Лист2!B$15&gt;0,test_raw!D2-Лист2!B$15,"")</f>
+        <v>4.9766666666666666</v>
+      </c>
+      <c r="E2" s="69">
+        <f>IF(test_raw!E2-Лист2!C$15&gt;0,test_raw!E2-Лист2!C$15,"")</f>
+        <v>6.1666666666666679</v>
+      </c>
+      <c r="F2" s="69" t="str">
+        <f>IF(test_raw!F2-Лист2!D$15&gt;0,test_raw!F2-Лист2!D$15,"")</f>
+        <v/>
+      </c>
+      <c r="G2" s="68">
+        <v>25.4</v>
+      </c>
+      <c r="H2" s="69">
+        <v>25.4</v>
+      </c>
+      <c r="I2" s="20">
+        <v>26</v>
+      </c>
+      <c r="J2" s="70">
+        <v>1660.380452607463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="68">
+        <v>5</v>
+      </c>
+      <c r="B3" s="69">
+        <v>10</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69">
+        <f>IF(test_raw!D3-Лист2!B$15&gt;0,test_raw!D3-Лист2!B$15,"")</f>
+        <v>4.8666666666666654</v>
+      </c>
+      <c r="E3" s="69">
+        <f>IF(test_raw!E3-Лист2!C$15&gt;0,test_raw!E3-Лист2!C$15,"")</f>
+        <v>12.516666666666666</v>
+      </c>
+      <c r="F3" s="69" t="str">
+        <f>IF(test_raw!F3-Лист2!D$15&gt;0,test_raw!F3-Лист2!D$15,"")</f>
+        <v/>
+      </c>
+      <c r="G3" s="71">
+        <v>27.4</v>
+      </c>
+      <c r="H3" s="72">
+        <v>27.3</v>
+      </c>
+      <c r="I3" s="73">
+        <v>26</v>
+      </c>
+      <c r="J3" s="70">
+        <v>1786.974938228082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="68">
+        <v>5</v>
+      </c>
+      <c r="B4" s="69">
+        <v>10</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69">
+        <f>IF(test_raw!D4-Лист2!B$15&gt;0,test_raw!D4-Лист2!B$15,"")</f>
+        <v>4.8666666666666654</v>
+      </c>
+      <c r="E4" s="69">
+        <f>IF(test_raw!E4-Лист2!C$15&gt;0,test_raw!E4-Лист2!C$15,"")</f>
+        <v>12.516666666666666</v>
+      </c>
+      <c r="F4" s="69" t="str">
+        <f>IF(test_raw!F4-Лист2!D$15&gt;0,test_raw!F4-Лист2!D$15,"")</f>
+        <v/>
+      </c>
+      <c r="G4" s="71">
+        <v>27.4</v>
+      </c>
+      <c r="H4" s="72">
+        <v>27.3</v>
+      </c>
+      <c r="I4" s="73">
+        <v>26</v>
+      </c>
+      <c r="J4" s="70">
+        <v>1791.4012738854051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="68">
+        <v>10</v>
+      </c>
+      <c r="B5" s="69">
+        <v>5</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69">
+        <f>IF(test_raw!D5-Лист2!B$15&gt;0,test_raw!D5-Лист2!B$15,"")</f>
+        <v>9.9266666666666641</v>
+      </c>
+      <c r="E5" s="69">
+        <f>IF(test_raw!E5-Лист2!C$15&gt;0,test_raw!E5-Лист2!C$15,"")</f>
+        <v>6.2966666666666669</v>
+      </c>
+      <c r="F5" s="69" t="str">
+        <f>IF(test_raw!F5-Лист2!D$15&gt;0,test_raw!F5-Лист2!D$15,"")</f>
+        <v/>
+      </c>
+      <c r="G5" s="68">
+        <v>25</v>
+      </c>
+      <c r="H5" s="69">
+        <v>25</v>
+      </c>
+      <c r="I5" s="20">
+        <v>25.1</v>
+      </c>
+      <c r="J5" s="70">
+        <v>1636.7604267701761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="68">
+        <v>10</v>
+      </c>
+      <c r="B6" s="69">
+        <v>5</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69">
+        <f>IF(test_raw!D6-Лист2!B$15&gt;0,test_raw!D6-Лист2!B$15,"")</f>
+        <v>9.9166666666666661</v>
+      </c>
+      <c r="E6" s="69">
+        <f>IF(test_raw!E6-Лист2!C$15&gt;0,test_raw!E6-Лист2!C$15,"")</f>
+        <v>6.1666666666666679</v>
+      </c>
+      <c r="F6" s="69" t="str">
+        <f>IF(test_raw!F6-Лист2!D$15&gt;0,test_raw!F6-Лист2!D$15,"")</f>
+        <v/>
+      </c>
+      <c r="G6" s="68">
+        <v>26.7</v>
+      </c>
+      <c r="H6" s="69">
+        <v>26.7</v>
+      </c>
+      <c r="I6" s="73">
+        <v>26.5</v>
+      </c>
+      <c r="J6" s="70">
+        <v>1637.8194758978179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4C2628-D2FC-4A48-A21D-90205F9A8A1C}">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1424,12 +1652,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB19FE81-7B9A-4266-91F3-22F715A661B6}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,7 +1834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F4DAD7-B140-46D4-A005-91D2ED17B6AC}">
   <dimension ref="A1:M28"/>
   <sheetViews>
@@ -2550,7 +2778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B41AF6E-62F8-4E65-B4AB-CD96D24601B3}">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:M28"/>
@@ -3342,7 +3570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3616A7DD-0D5F-4D66-B161-808D0E8DE3F9}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G35"/>
@@ -3909,7 +4137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF14D622-0DFC-4C8A-909C-671310EFF4FE}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:O34"/>
@@ -4939,12 +5167,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38DB5E2-02E0-4712-A284-5CB8F915185F}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
